--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121232a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121232a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.258811933854484</v>
+      </c>
+      <c r="D5">
+        <v>0.2945756084071067</v>
+      </c>
+      <c r="E5">
+        <v>1.481361377518448</v>
+      </c>
+      <c r="F5">
+        <v>0.4086677230873447</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.258811933854484</v>
+        <v>0.7978934376478096</v>
       </c>
       <c r="D6">
-        <v>0.2945756084071067</v>
+        <v>0.8567049785914563</v>
       </c>
       <c r="E6">
-        <v>1.481361377518448</v>
+        <v>6.024682180982262</v>
       </c>
       <c r="F6">
-        <v>0.4086677230873447</v>
+        <v>1.548457082677303</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.7978934376478096</v>
+        <v>1.095637625193062</v>
       </c>
       <c r="D7">
-        <v>0.8567049785914563</v>
+        <v>1.213419479860496</v>
       </c>
       <c r="E7">
-        <v>6.024682180982262</v>
+        <v>4.124128875115602</v>
       </c>
       <c r="F7">
-        <v>1.548457082677303</v>
+        <v>1.692104836829181</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2.733086326349453</v>
+      </c>
+      <c r="D8">
+        <v>2.913062932352764</v>
+      </c>
+      <c r="E8">
+        <v>10.40378061711872</v>
+      </c>
+      <c r="F8">
+        <v>5.411733192917321</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.095637625193062</v>
+        <v>2.082302592923815</v>
       </c>
       <c r="D9">
-        <v>1.213419479860496</v>
+        <v>2.554385334796651</v>
       </c>
       <c r="E9">
-        <v>4.124128875115602</v>
+        <v>16.19936752420412</v>
       </c>
       <c r="F9">
-        <v>1.692104836829181</v>
+        <v>3.597499455647078</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.733086326349453</v>
+        <v>2.374798897534619</v>
       </c>
       <c r="D10">
-        <v>2.913062932352764</v>
+        <v>2.023844414813123</v>
       </c>
       <c r="E10">
-        <v>10.40378061711872</v>
+        <v>10.17992698525019</v>
       </c>
       <c r="F10">
-        <v>5.411733192917321</v>
+        <v>3.27312044463849</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.082302592923815</v>
+        <v>2.279536546250502</v>
       </c>
       <c r="D11">
-        <v>2.554385334796651</v>
+        <v>2.296516871843319</v>
       </c>
       <c r="E11">
-        <v>16.19936752420412</v>
+        <v>10.27884746909547</v>
       </c>
       <c r="F11">
-        <v>3.597499455647078</v>
+        <v>3.455195254323326</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.374798897534619</v>
+        <v>2.096496542120021</v>
       </c>
       <c r="D12">
-        <v>2.023844414813123</v>
+        <v>2.576874593657348</v>
       </c>
       <c r="E12">
-        <v>10.17992698525019</v>
+        <v>6.577002660261093</v>
       </c>
       <c r="F12">
-        <v>3.27312044463849</v>
+        <v>3.020915318079588</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.279536546250502</v>
+        <v>5.932327559508565</v>
       </c>
       <c r="D13">
-        <v>2.296516871843319</v>
+        <v>5.747635976833743</v>
       </c>
       <c r="E13">
-        <v>10.27884746909547</v>
+        <v>12.9572964445405</v>
       </c>
       <c r="F13">
-        <v>3.455195254323326</v>
+        <v>7.131164317497613</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.096496542120021</v>
+        <v>1.169590711807877</v>
       </c>
       <c r="D14">
-        <v>2.576874593657348</v>
+        <v>1.435541604606298</v>
       </c>
       <c r="E14">
-        <v>6.577002660261093</v>
+        <v>8.766601368768372</v>
       </c>
       <c r="F14">
-        <v>3.020915318079588</v>
+        <v>2.41818178470986</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.932327559508565</v>
+        <v>0.6568131125997879</v>
       </c>
       <c r="D15">
-        <v>5.747635976833743</v>
+        <v>0.7339180396380076</v>
       </c>
       <c r="E15">
-        <v>12.9572964445405</v>
+        <v>3.249914405567923</v>
       </c>
       <c r="F15">
-        <v>7.131164317497613</v>
+        <v>0.9505108424853064</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1.169590711807877</v>
+        <v>2.920594939013041</v>
       </c>
       <c r="D16">
-        <v>1.435541604606298</v>
+        <v>2.874082438270831</v>
       </c>
       <c r="E16">
-        <v>8.766601368768372</v>
+        <v>19.3331625643957</v>
       </c>
       <c r="F16">
-        <v>2.41818178470986</v>
+        <v>3.638468709529871</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.6568131125997879</v>
+        <v>1.995688222996678</v>
       </c>
       <c r="D17">
-        <v>0.7339180396380076</v>
+        <v>2.18904203129385</v>
       </c>
       <c r="E17">
-        <v>3.249914405567923</v>
+        <v>12.64438779605969</v>
       </c>
       <c r="F17">
-        <v>0.9505108424853064</v>
+        <v>3.571379913187557</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.920594939013041</v>
+        <v>1.124398398593774</v>
       </c>
       <c r="D18">
-        <v>2.874082438270831</v>
+        <v>1.272217835390569</v>
       </c>
       <c r="E18">
-        <v>19.3331625643957</v>
+        <v>7.017728218444026</v>
       </c>
       <c r="F18">
-        <v>3.638468709529871</v>
+        <v>1.828039881659339</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1.995688222996678</v>
+        <v>2.515524389128954</v>
       </c>
       <c r="D19">
-        <v>2.18904203129385</v>
+        <v>3.011032702871212</v>
       </c>
       <c r="E19">
-        <v>12.64438779605969</v>
+        <v>14.88752247886767</v>
       </c>
       <c r="F19">
-        <v>3.571379913187557</v>
+        <v>3.699064572211958</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1.124398398593774</v>
+        <v>2.151410680779491</v>
       </c>
       <c r="D20">
-        <v>1.272217835390569</v>
+        <v>1.938174828730327</v>
       </c>
       <c r="E20">
-        <v>7.017728218444026</v>
+        <v>14.40103157922793</v>
       </c>
       <c r="F20">
-        <v>1.828039881659339</v>
+        <v>2.3328549550621</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.515524389128954</v>
+        <v>1.701895300695401</v>
       </c>
       <c r="D21">
-        <v>3.011032702871212</v>
+        <v>2.29532315927978</v>
       </c>
       <c r="E21">
-        <v>14.88752247886767</v>
+        <v>5.840795435018141</v>
       </c>
       <c r="F21">
-        <v>3.699064572211958</v>
+        <v>2.130125993678959</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2.151410680779491</v>
+        <v>2.569576536904565</v>
       </c>
       <c r="D22">
-        <v>1.938174828730327</v>
+        <v>2.687488445143875</v>
       </c>
       <c r="E22">
-        <v>14.40103157922793</v>
+        <v>10.70518762359293</v>
       </c>
       <c r="F22">
-        <v>2.3328549550621</v>
+        <v>2.748576985764454</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1.701895300695401</v>
+        <v>2.215636458570171</v>
       </c>
       <c r="D23">
-        <v>2.29532315927978</v>
+        <v>2.50882195206052</v>
       </c>
       <c r="E23">
-        <v>5.840795435018141</v>
+        <v>9.481666275048296</v>
       </c>
       <c r="F23">
-        <v>2.130125993678959</v>
+        <v>3.398967558335795</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.569576536904565</v>
+        <v>1.239837935641345</v>
       </c>
       <c r="D24">
-        <v>2.687488445143875</v>
+        <v>1.41558571761091</v>
       </c>
       <c r="E24">
-        <v>10.70518762359293</v>
+        <v>5.515319017989232</v>
       </c>
       <c r="F24">
-        <v>2.748576985764454</v>
+        <v>2.10180879811904</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.215636458570171</v>
+        <v>0.3478643928786679</v>
       </c>
       <c r="D25">
-        <v>2.50882195206052</v>
+        <v>0.4208634560714989</v>
       </c>
       <c r="E25">
-        <v>9.481666275048296</v>
+        <v>2.406489460238711</v>
       </c>
       <c r="F25">
-        <v>3.398967558335795</v>
+        <v>0.5759109998317281</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1.239837935641345</v>
+        <v>0.571787006739346</v>
       </c>
       <c r="D26">
-        <v>1.41558571761091</v>
+        <v>0.7060937120600883</v>
       </c>
       <c r="E26">
-        <v>5.515319017989232</v>
+        <v>4.855458370492623</v>
       </c>
       <c r="F26">
-        <v>2.10180879811904</v>
+        <v>1.046141296871788</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.3478643928786679</v>
+        <v>1.567926857466836</v>
       </c>
       <c r="D27">
-        <v>0.4208634560714989</v>
+        <v>2.098900994218345</v>
       </c>
       <c r="E27">
-        <v>2.406489460238711</v>
+        <v>11.07558228131233</v>
       </c>
       <c r="F27">
-        <v>0.5759109998317281</v>
+        <v>2.983292649967083</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0.571787006739346</v>
+        <v>0.7870516858741206</v>
       </c>
       <c r="D28">
-        <v>0.7060937120600883</v>
+        <v>0.8530326361581674</v>
       </c>
       <c r="E28">
-        <v>4.855458370492623</v>
+        <v>4.022531390344992</v>
       </c>
       <c r="F28">
-        <v>1.046141296871788</v>
+        <v>1.061406597621233</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1.567926857466836</v>
+        <v>0.5247144977322806</v>
       </c>
       <c r="D29">
-        <v>2.098900994218345</v>
+        <v>0.6431667447326981</v>
       </c>
       <c r="E29">
-        <v>11.07558228131233</v>
+        <v>3.549524253340115</v>
       </c>
       <c r="F29">
-        <v>2.983292649967083</v>
+        <v>0.8846183891692628</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0.7870516858741206</v>
+        <v>0.6105457616727745</v>
       </c>
       <c r="D30">
-        <v>0.8530326361581674</v>
+        <v>0.7461178750631671</v>
       </c>
       <c r="E30">
-        <v>4.022531390344992</v>
+        <v>4.093421230968135</v>
       </c>
       <c r="F30">
-        <v>1.061406597621233</v>
+        <v>1.173779086184162</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0.5247144977322806</v>
+        <v>0.9699434490729886</v>
       </c>
       <c r="D31">
-        <v>0.6431667447326981</v>
+        <v>1.08970068672236</v>
       </c>
       <c r="E31">
-        <v>3.549524253340115</v>
+        <v>5.873651815990764</v>
       </c>
       <c r="F31">
-        <v>0.8846183891692628</v>
+        <v>1.730465344882757</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0.6105457616727745</v>
+        <v>1.43670686849325</v>
       </c>
       <c r="D32">
-        <v>0.7461178750631671</v>
+        <v>1.96300563770611</v>
       </c>
       <c r="E32">
-        <v>4.093421230968135</v>
+        <v>11.48845931897953</v>
       </c>
       <c r="F32">
-        <v>1.173779086184162</v>
+        <v>3.069414806463064</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0.9699434490729886</v>
+        <v>0.8769164881471532</v>
       </c>
       <c r="D33">
-        <v>1.08970068672236</v>
+        <v>0.9934346757302143</v>
       </c>
       <c r="E33">
-        <v>5.873651815990764</v>
+        <v>5.609599906318393</v>
       </c>
       <c r="F33">
-        <v>1.730465344882757</v>
+        <v>1.692594636286495</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1.43670686849325</v>
+        <v>0.8508700184752563</v>
       </c>
       <c r="D34">
-        <v>1.96300563770611</v>
+        <v>0.8959783445174092</v>
       </c>
       <c r="E34">
-        <v>11.48845931897953</v>
+        <v>3.793476478097389</v>
       </c>
       <c r="F34">
-        <v>3.069414806463064</v>
+        <v>1.596028177045699</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.8769164881471532</v>
+        <v>1.556477202940476</v>
       </c>
       <c r="D35">
-        <v>0.9934346757302143</v>
+        <v>1.59131577164903</v>
       </c>
       <c r="E35">
-        <v>5.609599906318393</v>
+        <v>7.725143132374283</v>
       </c>
       <c r="F35">
-        <v>1.692594636286495</v>
+        <v>2.922687365569206</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.8508700184752563</v>
+        <v>2.375020813582024</v>
       </c>
       <c r="D36">
-        <v>0.8959783445174092</v>
+        <v>2.286529000604556</v>
       </c>
       <c r="E36">
-        <v>3.793476478097389</v>
+        <v>10.56773483489511</v>
       </c>
       <c r="F36">
-        <v>1.596028177045699</v>
+        <v>4.473687391497421</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1.556477202940476</v>
+        <v>1.316674491296353</v>
       </c>
       <c r="D37">
-        <v>1.59131577164903</v>
+        <v>1.466079464095952</v>
       </c>
       <c r="E37">
-        <v>7.725143132374283</v>
+        <v>6.26652972329515</v>
       </c>
       <c r="F37">
-        <v>2.922687365569206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>2.375020813582024</v>
-      </c>
-      <c r="D38">
-        <v>2.286529000604556</v>
-      </c>
-      <c r="E38">
-        <v>10.56773483489511</v>
-      </c>
-      <c r="F38">
-        <v>4.473687391497421</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>1.316674491296353</v>
-      </c>
-      <c r="D39">
-        <v>1.466079464095952</v>
-      </c>
-      <c r="E39">
-        <v>6.26652972329515</v>
-      </c>
-      <c r="F39">
         <v>2.506705740761931</v>
       </c>
     </row>
